--- a/docs/PT3/PT3_12.11.2024_output.xlsx
+++ b/docs/PT3/PT3_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731610858.18625</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731610858.7187068</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731610858.18625.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731610858.7187068.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.3</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>136.2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731610860.0506558</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731610860.6285965</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731610860.0506558.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731610860.6285965.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>136</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731610869.2837887</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731610870.2993925</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731610869.2837887.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731610870.2993925.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.12</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.19</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731610877.2455983</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731610877.2455983.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731610877.2455983.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.31</v>
       </c>
-      <c r="J6" t="n">
-        <v>135.31</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>135.34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731610880.2454934</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731610880.5996315</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610880.2454934.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610880.5996315.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7050.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7037.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-13</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731610883.610887</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731610884.038843</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610883.610887.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610884.038843.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7037</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7026</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>11</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731610890.748313</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731610890.9282699</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610890.748313.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610890.9282699.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7009.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6999</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>10.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731610892.9207659</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731610893.6006987</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610892.9207659.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610893.6006987.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7002</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7000</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-2</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731610895.5914042</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731610896.6646252</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610895.5914042.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610896.6646252.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6994</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6993</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731610902.4554636</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731610903.4695985</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610902.4554636.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610903.4695985.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7005</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>7010.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-5.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731610903.6072237</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731610903.6072237.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731610903.6072237.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>7004.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>7004.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>7006.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731610907.5964534</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731610908.3157382</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610907.5964534.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610908.3157382.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>492.45</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>493.1</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.6500000000000341</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731610910.4336178</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731610913.4525535</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610910.4336178.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610913.4525535.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>491.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>490.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731610923.31232</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731610925.2615392</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610923.31232.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610925.2615392.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>486.85</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>486.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731610929.6077633</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731610930.276022</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610929.6077633.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610930.276022.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>485.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>484.9</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1500000000000341</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731610931.1636944</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731610931.7559454</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610931.1636944.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610931.7559454.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>940.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>941</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731610932.533075</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731610933.1313477</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610932.533075.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610933.1313477.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>941.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>946</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>4.399999999999977</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731610934.3869445</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731610935.2451727</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610934.3869445.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610935.2451727.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>945.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>945.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731610943.0413344</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731610943.571216</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610943.0413344.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610943.571216.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>941</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>940.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731610944.893634</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731610945.792622</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610944.893634.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610945.792622.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>938</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>938.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731610949.5104039</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731610949.5682187</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610949.5104039.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610949.5682187.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>935.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>934.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731610964.3711228</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731610964.9865823</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610964.3711228.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610964.9865823.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>37.88</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>37.915</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.03499999999999659</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731610973.5543022</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731610974.1254084</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610973.5543022.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610974.1254084.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>38.13</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>38.14</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731610975.1011176</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731610975.388907</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610975.1011176.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610975.388907.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>38.18</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>38.15</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1771,95 +1931,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731610982.6258829</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731610982.6258829.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731610982.6258829.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>38.035</v>
       </c>
-      <c r="J27" t="n">
-        <v>38.035</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>38.065</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731610987.991041</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731610989.78965</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610987.991041.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610989.78965.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1249</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1244.2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-4.799999999999955</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731610990.573661</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731610991.3285737</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610990.573661.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610991.3285737.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1243.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1245.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.400000000000091</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731610996.2435453</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731610997.5451567</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610996.2435453.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610997.5451567.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1243.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1240.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731610998.849365</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731611000.902318</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610998.849365.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611000.902318.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1243.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1241.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731611004.271453</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731611005.0251248</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611004.271453.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611005.0251248.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1237.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1237.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3999999999998636</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731611010.7524464</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731611011.1072176</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611010.7524464.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611011.1072176.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1238</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1240</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731611015.0064354</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731611015.4528773</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611015.0064354.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611015.4528773.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>81.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>81.17</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731611017.5442276</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731611018.2044365</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611017.5442276.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611018.2044365.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>81.06999999999999</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731611021.6580899</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731611022.3757215</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611021.6580899.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611022.3757215.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>80.88</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>80.87</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731611030.3236566</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731611032.665726</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611030.3236566.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611032.665726.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>80.43000000000001</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>80.47</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731611048.7127616</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731611049.2815979</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611048.7127616.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611049.2815979.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>14.449</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>14.455</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731611053.7723997</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731611054.6944025</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611053.7723997.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611054.6944025.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>14.431</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>14.429</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.001999999999998892</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731611054.7111468</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731611055.4663017</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611054.7111468.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611055.4663017.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>14.429</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>14.392</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.03700000000000081</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731611056.6363113</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731611059.265087</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611056.6363113.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611059.265087.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>14.37</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>14.354</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.01600000000000001</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731611065.544014</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731611066.9194212</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611065.544014.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611066.9194212.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>106.85</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>107.11</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.2600000000000051</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731611067.7797556</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731611071.1174088</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611067.7797556.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611071.1174088.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>107.12</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>107.01</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731611076.0582368</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731611076.4756064</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611076.0582368.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611076.4756064.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>106.86</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>106.83</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731611078.359907</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731611079.3143704</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611078.359907.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611079.3143704.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>106.27</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>106.33</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731611082.493265</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731611082.9439538</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611082.493265.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611082.9439538.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>105.91</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>105.94</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731611085.0443263</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731611086.6831179</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611085.0443263.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611086.6831179.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>106.06</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>105.74</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.3200000000000074</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731611090.062276</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731611090.8597312</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611090.062276.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611090.8597312.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>106.13</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>106.17</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731611090.8766584</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731611090.9742997</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611090.8766584.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611090.9742997.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>106.17</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>106.27</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2959,95 +3257,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731611091.0318878</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731611091.0318878.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731611091.0318878.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>106.2</v>
       </c>
-      <c r="J50" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>106.1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731611103.548895</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731611104.6709714</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611103.548895.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611104.6709714.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>349.14</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>349.01</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3055,51 +3365,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731611104.7564197</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731611104.9105785</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611104.7564197.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611104.9105785.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>349.13</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>349</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3107,51 +3423,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731611108.230269</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731611109.1339054</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611108.230269.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611109.1339054.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>347.19</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>346.16</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>1.029999999999973</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3159,51 +3481,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731611110.4866862</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731611110.9902406</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611110.4866862.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611110.9902406.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>346.16</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>346.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.03999999999996362</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3211,51 +3539,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731611117.0182955</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731611119.2409244</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611117.0182955.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611119.2409244.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>2793.9</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>2789.25</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-4.650000000000091</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3263,51 +3597,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731611119.867063</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731611122.2066987</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611119.867063.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611122.2066987.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>2790.8</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>2786.55</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>4.25</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3315,51 +3655,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731611123.137478</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731611124.4399173</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611123.137478.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611124.4399173.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>2787.45</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>2781</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>6.449999999999818</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3367,51 +3713,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731611126.9677672</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731611128.6877787</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611126.9677672.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611128.6877787.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>2783.55</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>2786</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>2.449999999999818</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3419,51 +3771,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731611132.7951574</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731611133.9565318</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611132.7951574.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611133.9565318.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>2776.2</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2776.25</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.0500000000001819</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -3471,51 +3829,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731611139.4653125</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731611140.4886782</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611139.4653125.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611140.4886782.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>2778.8</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>2783</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-4.199999999999818</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -3523,95 +3887,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731611140.757181</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731611140.757181.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731611140.757181.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>2780.35</v>
       </c>
-      <c r="J61" t="n">
-        <v>2780.35</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2778.35</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731611142.1843455</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731611142.577991</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611142.1843455.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611142.577991.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>598.2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>599.3</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-1.099999999999909</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731611147.4400249</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731611147.8422253</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611147.4400249.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611147.8422253.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>594.7</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>591.9</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731611148.8690355</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731611149.4622982</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611148.8690355.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611149.4622982.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>592.3</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>591.2</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.099999999999909</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731611153.469333</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731611154.4474094</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611153.469333.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611154.4474094.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>593.8</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>593.7</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.09999999999990905</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731611155.1153715</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731611157.7346392</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611155.1153715.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611157.7346392.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>594.7</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>594.7</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731611164.1532912</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731611166.248317</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611164.1532912.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611166.248317.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>591.9</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>589.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>2.5</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731611167.175898</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731611167.745948</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611167.175898.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611167.745948.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>590</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>589.8</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3985,19 +4397,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6900000000000261</v>
+        <v>-0.7900000000000347</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07666666666666958</v>
+        <v>-0.08777777777778163</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-0.74</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="3">
@@ -4007,19 +4419,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -4029,19 +4441,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.249999999999545</v>
+        <v>2.249999999999545</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6071428571427921</v>
+        <v>0.3214285714285064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -4161,16 +4573,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02999999999997272</v>
+        <v>0.05999999999997385</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007499999999993179</v>
+        <v>0.01499999999999346</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -4183,19 +4595,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005000000000002558</v>
+        <v>-0.02499999999999858</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001250000000000639</v>
+        <v>-0.006249999999999645</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="12">
